--- a/myapp/files/9_MethodComparePercent/Scenario 289.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 289.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2835</v>
+        <v>12178</v>
       </c>
       <c r="F2" t="n">
-        <v>2.85415135559605</v>
+        <v>2.17231150140653</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.78571428571429</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1575</v>
+        <v>17305</v>
       </c>
       <c r="F3" t="n">
-        <v>1.58563964199781</v>
+        <v>3.08686570305797</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -631,16 +631,16 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.58565737051793</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.78571428571429</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.47058823529412</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1862</v>
+        <v>19886</v>
       </c>
       <c r="F4" t="n">
-        <v>1.87457842120629</v>
+        <v>3.54726445368453</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78571428571429</v>
+        <v>4.38247011952191</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>13530</v>
+        <v>31026</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6213995912573</v>
+        <v>5.53441752690416</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -707,10 +707,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>14.2857142857143</v>
+        <v>7.56972111553785</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>15662</v>
+        <v>30687</v>
       </c>
       <c r="F6" t="n">
-        <v>15.7678019510918</v>
+        <v>5.4739467107622</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>16.0714285714286</v>
+        <v>7.17131474103586</v>
       </c>
       <c r="K6" t="n">
         <v>8</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13517</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.41116230616784</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2310</v>
+        <v>24588</v>
       </c>
       <c r="F8" t="n">
-        <v>2.32560480826345</v>
+        <v>4.38600716017274</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.7808764940239</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.78571428571429</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.94117647058824</v>
+        <v>1.47058823529412</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4467</v>
+        <v>32246</v>
       </c>
       <c r="F9" t="n">
-        <v>4.49717605130425</v>
+        <v>5.75204111301978</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>5.35714285714286</v>
+        <v>6.77290836653386</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3383</v>
+        <v>27350</v>
       </c>
       <c r="F10" t="n">
-        <v>3.40585327547846</v>
+        <v>4.87869268873941</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>3.57142857142857</v>
+        <v>6.77290836653386</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1402</v>
+        <v>24934</v>
       </c>
       <c r="F11" t="n">
-        <v>1.41147097021011</v>
+        <v>4.44772663623504</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>16.1764705882353</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>3.57142857142857</v>
+        <v>5.57768924302789</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7515</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.34052561447447</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21334</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.80555867720536</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.78884462151394</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9953</v>
+        <v>54396</v>
       </c>
       <c r="F14" t="n">
-        <v>10.0202357820979</v>
+        <v>9.70315786093853</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>7.35294117647059</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>7.14285714285714</v>
+        <v>5.97609561752988</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>15304</v>
+        <v>61222</v>
       </c>
       <c r="F15" t="n">
-        <v>15.4073835435774</v>
+        <v>10.9207796632543</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>17.6470588235294</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>10.7142857142857</v>
+        <v>7.96812749003984</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>10981</v>
+        <v>42337</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0551802595415</v>
+        <v>7.55207357817771</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1125,10 +1125,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>14.2857142857143</v>
+        <v>8.36653386454183</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2988</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.532999405994638</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10704</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.90937939818159</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.59362549800797</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4201</v>
+        <v>20313</v>
       </c>
       <c r="F19" t="n">
-        <v>4.22937913398907</v>
+        <v>3.62343270882499</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.57142857142857</v>
+        <v>3.18725099601594</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>722</v>
+        <v>27642</v>
       </c>
       <c r="F20" t="n">
-        <v>0.726877346998359</v>
+        <v>4.93077964541626</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1277,10 +1277,10 @@
         <v>10.2941176470588</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>1.78571428571429</v>
+        <v>4.7808764940239</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>25599</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.56634932866691</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.7808764940239</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1917</v>
+        <v>3825</v>
       </c>
       <c r="F22" t="n">
-        <v>1.92994996426019</v>
+        <v>0.682303456469039</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.78571428571429</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2187</v>
+        <v>8304</v>
       </c>
       <c r="F23" t="n">
-        <v>2.20177390288838</v>
+        <v>1.48126742549514</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.78571428571429</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2187</v>
+        <v>10368</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20177390288838</v>
+        <v>1.84944372200549</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.78571428571429</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2943</v>
+        <v>13676</v>
       </c>
       <c r="F25" t="n">
-        <v>2.96288093104733</v>
+        <v>2.43952472435832</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.57142857142857</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1908</v>
+        <v>16661</v>
       </c>
       <c r="F26" t="n">
-        <v>1.92088916630591</v>
+        <v>2.9719889903871</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.57142857142857</v>
+        <v>2.78884462151394</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
